--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Variedades.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Variedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618A047E-D915-4371-BA6E-EA2ABB527214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBB14A1-BE89-41E7-BE69-B08F721FCC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2F24514-A324-4A91-BC41-6F647A0328B5}"/>
   </bookViews>
@@ -1521,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914BE781-1200-405E-ABFA-48304F8C6182}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M152" sqref="M152"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L133" sqref="L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6332,7 +6332,7 @@
         <v>356</v>
       </c>
       <c r="M117">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -7740,15 +7740,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008779A2D33CA8334492C549E4686517BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2a4260219ee5de385190f1abcccb100d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee14d8cb-d637-4a78-b781-9c79618f591c" xmlns:ns4="980e4f00-5dd6-4ca1-90c5-af35b41372d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6dd5b29c8537c5ffeac9c4273f4fd428" ns3:_="" ns4:_="">
     <xsd:import namespace="ee14d8cb-d637-4a78-b781-9c79618f591c"/>
@@ -7919,6 +7910,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7926,14 +7926,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35F07D0-F923-484E-A1F2-59518B14DBD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C1E75B-2AC2-40AB-8D57-20A7D5419072}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7952,6 +7944,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D35F07D0-F923-484E-A1F2-59518B14DBD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD5E41CA-7CC8-4374-B90B-F75EA63B41F5}">
   <ds:schemaRefs>
